--- a/experiments/Dye kinetics/exact_mixes.xlsx
+++ b/experiments/Dye kinetics/exact_mixes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\Projects\auto CYCIF\Dye kinetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9775220ff73936ab/Documents/GitHub/AutoCIF/experiments/Dye kinetics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87238B7-E3D7-46FE-904C-4A1BD7346079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F87238B7-E3D7-46FE-904C-4A1BD7346079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56D7DB84-C482-4271-8160-2A29B9E51D93}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8B5A55C4-E425-4C1B-A25F-36E5E7A8D4F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8B5A55C4-E425-4C1B-A25F-36E5E7A8D4F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dilutions for OD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Dye</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>cy3</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>8uM</t>
+  </si>
+  <si>
+    <t>100x</t>
   </si>
 </sst>
 </file>
@@ -787,18 +796,18 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -833,7 +842,7 @@
         <v>44.92307692307692</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -851,7 +860,7 @@
         <v>95.384615384615373</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -869,7 +878,7 @@
         <v>56.615384615384606</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -887,7 +896,7 @@
         <v>83.076923076923066</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -905,7 +914,7 @@
         <v>178.46153846153845</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -923,7 +932,7 @@
         <v>33.84615384615384</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -941,11 +950,11 @@
         <v>76.923076923076906</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -959,22 +968,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD9A802-693D-40BA-9C89-1D422386E591}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>571.57446808510645</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>131.91489361702128</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1069,7 @@
         <v>516.76595744680844</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1091,7 @@
         <v>758.29787234042544</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>296.17021276595744</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1135,7 @@
         <v>224.68085106382978</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1146,6 +1155,22 @@
       <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>638.29787234042556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1157,30 +1182,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5126C97B-0FD7-488A-9470-20DD85C2B1E0}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1000</v>
       </c>
@@ -1220,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>1000</v>
       </c>
@@ -1242,7 +1267,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>1000</v>
       </c>
@@ -1264,7 +1289,7 @@
         <v>1.9949999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>1000</v>
       </c>
@@ -1286,7 +1311,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1000</v>
       </c>
@@ -1308,7 +1333,7 @@
         <v>0.49500000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>1000</v>
       </c>
@@ -1330,12 +1355,12 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>1000</v>
       </c>
@@ -1377,7 +1402,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>1000</v>
       </c>
@@ -1399,7 +1424,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>1000</v>
       </c>
@@ -1421,7 +1446,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>1000</v>
       </c>
@@ -1443,7 +1468,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>1000</v>
       </c>
@@ -1465,7 +1490,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>1000</v>
       </c>
@@ -1487,7 +1512,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>1000</v>
       </c>
@@ -1509,7 +1534,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>1000</v>
       </c>
